--- a/DateBase/orders/Dang Nguyen48_2025-12-27.xlsx
+++ b/DateBase/orders/Dang Nguyen48_2025-12-27.xlsx
@@ -861,6 +861,9 @@
       <c r="C51" t="str">
         <v>13_酒红洋桔梗_Burgundy Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
       </c>
+      <c r="F51" t="str">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -922,7 +925,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0671011.520208.538151510201515510510111010201520304020105101015610101010152051010333104050</v>
+        <v>0671011.520208.538151510201515510510111010201520304020105101015610101010152051010333104055</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen48_2025-12-27.xlsx
+++ b/DateBase/orders/Dang Nguyen48_2025-12-27.xlsx
@@ -927,6 +927,9 @@
       <c r="G2" t="str">
         <v>0671011.520208.538151510201515510510111010201520304020105101015610101010152051010333104055</v>
       </c>
+      <c r="H2" t="str">
+        <v>CNY</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
